--- a/database/industries/khodro/khedizel/product/yearly_seprated.xlsx
+++ b/database/industries/khodro/khedizel/product/yearly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khedizel\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C760C98C-2EC0-4A9A-8C69-4F4EFB4896A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>خدیزل-بهمن  دیزل</t>
@@ -225,7 +226,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,7 +413,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -424,7 +425,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -471,6 +472,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -506,6 +524,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -657,7 +692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/khodro/khedizel/product/yearly_seprated.xlsx
+++ b/database/industries/khodro/khedizel/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C760C98C-2EC0-4A9A-8C69-4F4EFB4896A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB008D20-CA7F-4475-9415-AD9DF9F80FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="67">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,6 +49,9 @@
     <t>دوازده ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -61,13 +61,13 @@
     <t>دستگاه</t>
   </si>
   <si>
+    <t>کامیونت 5 تن</t>
+  </si>
+  <si>
+    <t>کامیون FVR</t>
+  </si>
+  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>کامیونت 5 تن</t>
-  </si>
-  <si>
-    <t>کامیون FVR</t>
   </si>
   <si>
     <t>مینی بوس</t>
@@ -697,12 +697,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -712,7 +712,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,7 +724,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -736,7 +736,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -746,7 +746,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,7 +802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -812,7 +812,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -832,71 +832,71 @@
         <v>12</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="11">
+        <v>886</v>
+      </c>
+      <c r="F11" s="11">
+        <v>403</v>
+      </c>
+      <c r="G11" s="11">
+        <v>634</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1909</v>
+      </c>
+      <c r="I11" s="11">
+        <v>2883</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F11" s="11">
-        <v>886</v>
-      </c>
-      <c r="G11" s="11">
-        <v>403</v>
-      </c>
-      <c r="H11" s="11">
-        <v>634</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1909</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
+      <c r="E12" s="13">
+        <v>192</v>
       </c>
       <c r="F12" s="13">
-        <v>192</v>
+        <v>7</v>
       </c>
       <c r="G12" s="13">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="H12" s="13">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I12" s="13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
-        <v>13</v>
+      <c r="E13" s="11">
+        <v>106</v>
       </c>
       <c r="F13" s="11">
-        <v>106</v>
-      </c>
-      <c r="G13" s="11">
         <v>33</v>
       </c>
+      <c r="G13" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H13" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -904,23 +904,23 @@
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
-      <c r="E14" s="13" t="s">
-        <v>13</v>
+      <c r="E14" s="13">
+        <v>354</v>
       </c>
       <c r="F14" s="13">
-        <v>354</v>
-      </c>
-      <c r="G14" s="13">
         <v>173</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="13">
+      <c r="G14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="13">
         <v>324</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -928,23 +928,23 @@
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
-        <v>13</v>
+      <c r="E15" s="11">
+        <v>341</v>
       </c>
       <c r="F15" s="11">
-        <v>341</v>
+        <v>202</v>
       </c>
       <c r="G15" s="11">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="H15" s="11">
-        <v>95</v>
+        <v>218</v>
       </c>
       <c r="I15" s="11">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
@@ -952,23 +952,23 @@
         <v>12</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="E16" s="13">
         <v>10</v>
       </c>
+      <c r="F16" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G16" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -976,23 +976,23 @@
         <v>12</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
+      <c r="E17" s="11">
+        <v>44</v>
       </c>
       <c r="F17" s="11">
-        <v>44</v>
-      </c>
-      <c r="G17" s="11">
         <v>6</v>
       </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -1000,23 +1000,23 @@
         <v>12</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0</v>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1024,23 +1024,23 @@
         <v>12</v>
       </c>
       <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
-        <v>13</v>
+      <c r="E19" s="11">
+        <v>88</v>
       </c>
       <c r="F19" s="11">
-        <v>88</v>
-      </c>
-      <c r="G19" s="11">
         <v>22</v>
       </c>
+      <c r="G19" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H19" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -1049,22 +1049,22 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G20" s="13">
+        <v>9</v>
       </c>
       <c r="H20" s="13">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="I20" s="13">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1072,23 +1072,23 @@
         <v>12</v>
       </c>
       <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>13</v>
+      <c r="E21" s="11">
+        <v>140</v>
       </c>
       <c r="F21" s="11">
-        <v>140</v>
-      </c>
-      <c r="G21" s="11">
         <v>227</v>
       </c>
+      <c r="G21" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H21" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
@@ -1097,22 +1097,22 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="13">
+        <v>15</v>
+      </c>
+      <c r="G22" s="13">
         <v>293</v>
       </c>
-      <c r="I22" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="13">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1121,22 +1121,22 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F24" s="13">
+        <v>0</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
@@ -1169,22 +1169,22 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="11">
+        <v>15</v>
+      </c>
+      <c r="F25" s="11">
         <v>71</v>
       </c>
+      <c r="G25" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H25" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
@@ -1193,44 +1193,44 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G26" s="13">
+        <v>538</v>
       </c>
       <c r="H26" s="13">
-        <v>538</v>
+        <v>848</v>
       </c>
       <c r="I26" s="13">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>0</v>
+        <v>2161</v>
       </c>
       <c r="F27" s="15">
-        <v>2161</v>
+        <v>1144</v>
       </c>
       <c r="G27" s="15">
-        <v>1144</v>
+        <v>1616</v>
       </c>
       <c r="H27" s="15">
-        <v>1616</v>
+        <v>3350</v>
       </c>
       <c r="I27" s="15">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6824</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1242,7 +1242,7 @@
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>31</v>
       </c>
@@ -1251,22 +1251,22 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G29" s="11">
+        <v>0</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>33</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>34</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>35</v>
       </c>
@@ -1308,23 +1308,23 @@
         <v>32</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="11">
-        <v>0</v>
+      <c r="E32" s="11">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>31</v>
       </c>
@@ -1333,22 +1333,22 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" s="13">
-        <v>0</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
       </c>
       <c r="I33" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>36</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="16" t="s">
         <v>37</v>
       </c>
@@ -1379,22 +1379,22 @@
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G35" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
         <v>39</v>
       </c>
@@ -1402,8 +1402,8 @@
         <v>38</v>
       </c>
       <c r="D36" s="15"/>
-      <c r="E36" s="15" t="s">
-        <v>13</v>
+      <c r="E36" s="15">
+        <v>0</v>
       </c>
       <c r="F36" s="15">
         <v>0</v>
@@ -1411,21 +1411,21 @@
       <c r="G36" s="15">
         <v>0</v>
       </c>
-      <c r="H36" s="15">
-        <v>0</v>
+      <c r="H36" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="17" t="s">
-        <v>13</v>
+      <c r="E37" s="17">
+        <v>0</v>
       </c>
       <c r="F37" s="17">
         <v>0</v>
@@ -1433,36 +1433,36 @@
       <c r="G37" s="17">
         <v>0</v>
       </c>
-      <c r="H37" s="17">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15">
-        <v>0</v>
+        <v>2161</v>
       </c>
       <c r="F38" s="15">
-        <v>2161</v>
+        <v>1144</v>
       </c>
       <c r="G38" s="15">
-        <v>1144</v>
+        <v>1616</v>
       </c>
       <c r="H38" s="15">
-        <v>1616</v>
+        <v>3350</v>
       </c>
       <c r="I38" s="15">
-        <v>3350</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>6824</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1472,7 +1472,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1482,7 +1482,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1492,7 +1492,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>42</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1524,7 +1524,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>43</v>
       </c>
@@ -1536,7 +1536,7 @@
       <c r="H44" s="9"/>
       <c r="I44" s="9"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>11</v>
       </c>
@@ -1544,71 +1544,71 @@
         <v>44</v>
       </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="11">
+        <v>1261112</v>
+      </c>
+      <c r="F45" s="11">
+        <v>1323596</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2874201</v>
+      </c>
+      <c r="H45" s="11">
+        <v>13108612</v>
+      </c>
+      <c r="I45" s="11">
+        <v>25845267</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="11">
-        <v>1261112</v>
-      </c>
-      <c r="G45" s="11">
-        <v>1323596</v>
-      </c>
-      <c r="H45" s="11">
-        <v>2874201</v>
-      </c>
-      <c r="I45" s="11">
-        <v>13108612</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="12" t="s">
+      <c r="C46" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13">
+        <v>298806</v>
+      </c>
+      <c r="F46" s="13">
+        <v>21573</v>
+      </c>
+      <c r="G46" s="13">
+        <v>205859</v>
+      </c>
+      <c r="H46" s="13">
+        <v>103334</v>
+      </c>
+      <c r="I46" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C46" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="13">
-        <v>298806</v>
-      </c>
-      <c r="G46" s="13">
-        <v>21573</v>
-      </c>
-      <c r="H46" s="13">
-        <v>205859</v>
-      </c>
-      <c r="I46" s="13">
-        <v>103334</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="C47" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
-        <v>13</v>
+      <c r="E47" s="11">
+        <v>298931</v>
       </c>
       <c r="F47" s="11">
-        <v>298931</v>
-      </c>
-      <c r="G47" s="11">
         <v>222551</v>
       </c>
+      <c r="G47" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H47" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>16</v>
       </c>
@@ -1616,23 +1616,23 @@
         <v>44</v>
       </c>
       <c r="D48" s="13"/>
-      <c r="E48" s="13" t="s">
-        <v>13</v>
+      <c r="E48" s="13">
+        <v>654015</v>
       </c>
       <c r="F48" s="13">
-        <v>654015</v>
-      </c>
-      <c r="G48" s="13">
         <v>636828</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="13">
+      <c r="G48" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="13">
         <v>3872835</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>17</v>
       </c>
@@ -1640,23 +1640,23 @@
         <v>44</v>
       </c>
       <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>13</v>
+      <c r="E49" s="11">
+        <v>527556</v>
       </c>
       <c r="F49" s="11">
-        <v>527556</v>
+        <v>765587</v>
       </c>
       <c r="G49" s="11">
-        <v>765587</v>
+        <v>520904</v>
       </c>
       <c r="H49" s="11">
-        <v>520904</v>
+        <v>1691780</v>
       </c>
       <c r="I49" s="11">
-        <v>1691780</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4931249</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>18</v>
       </c>
@@ -1664,23 +1664,23 @@
         <v>44</v>
       </c>
       <c r="D50" s="13"/>
-      <c r="E50" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="13">
+      <c r="E50" s="13">
         <v>12003</v>
       </c>
+      <c r="F50" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G50" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>19</v>
       </c>
@@ -1688,23 +1688,23 @@
         <v>44</v>
       </c>
       <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
-        <v>13</v>
+      <c r="E51" s="11">
+        <v>57852</v>
       </c>
       <c r="F51" s="11">
-        <v>57852</v>
-      </c>
-      <c r="G51" s="11">
         <v>17533</v>
       </c>
+      <c r="G51" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H51" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>20</v>
       </c>
@@ -1712,23 +1712,23 @@
         <v>44</v>
       </c>
       <c r="D52" s="13"/>
-      <c r="E52" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="13">
-        <v>0</v>
+      <c r="E52" s="13">
+        <v>0</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>21</v>
       </c>
@@ -1736,23 +1736,23 @@
         <v>44</v>
       </c>
       <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
-        <v>13</v>
+      <c r="E53" s="11">
+        <v>299695</v>
       </c>
       <c r="F53" s="11">
-        <v>299695</v>
-      </c>
-      <c r="G53" s="11">
         <v>175621</v>
       </c>
+      <c r="G53" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H53" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>22</v>
       </c>
@@ -1761,22 +1761,22 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G54" s="13">
+        <v>75831</v>
       </c>
       <c r="H54" s="13">
-        <v>75831</v>
+        <v>715123</v>
       </c>
       <c r="I54" s="13">
-        <v>715123</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40780963</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>23</v>
       </c>
@@ -1784,23 +1784,23 @@
         <v>44</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>13</v>
+      <c r="E55" s="11">
+        <v>188437</v>
       </c>
       <c r="F55" s="11">
-        <v>188437</v>
-      </c>
-      <c r="G55" s="11">
         <v>770849</v>
       </c>
+      <c r="G55" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H55" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>24</v>
       </c>
@@ -1809,22 +1809,22 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="13">
+        <v>15</v>
+      </c>
+      <c r="G56" s="13">
         <v>1745070</v>
       </c>
-      <c r="I56" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="13">
+        <v>7208934</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>25</v>
       </c>
@@ -1833,22 +1833,22 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F57" s="11">
+        <v>0</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I57" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>26</v>
       </c>
@@ -1857,22 +1857,22 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="13">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>27</v>
       </c>
@@ -1881,22 +1881,22 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" s="11">
+        <v>15</v>
+      </c>
+      <c r="F59" s="11">
         <v>175815</v>
       </c>
+      <c r="G59" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H59" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>28</v>
       </c>
@@ -1905,44 +1905,44 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G60" s="13">
+        <v>1285600</v>
       </c>
       <c r="H60" s="13">
-        <v>1285600</v>
+        <v>5695843</v>
       </c>
       <c r="I60" s="13">
-        <v>5695843</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5187004</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15">
-        <v>0</v>
+        <v>3598407</v>
       </c>
       <c r="F61" s="15">
-        <v>3598407</v>
+        <v>4109953</v>
       </c>
       <c r="G61" s="15">
-        <v>4109953</v>
+        <v>6707465</v>
       </c>
       <c r="H61" s="15">
-        <v>6707465</v>
+        <v>25187527</v>
       </c>
       <c r="I61" s="15">
-        <v>25187527</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>83953417</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>45</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>31</v>
       </c>
@@ -1963,22 +1963,22 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H63" s="11">
+        <v>15</v>
+      </c>
+      <c r="G63" s="11">
         <v>2305914</v>
       </c>
+      <c r="H63" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="I63" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="16" t="s">
         <v>33</v>
       </c>
@@ -1991,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="G64" s="17">
-        <v>0</v>
+        <v>2305914</v>
       </c>
       <c r="H64" s="17">
-        <v>2305914</v>
+        <v>0</v>
       </c>
       <c r="I64" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>46</v>
       </c>
@@ -2012,7 +2012,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>35</v>
       </c>
@@ -2020,23 +2020,23 @@
         <v>44</v>
       </c>
       <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="11">
+      <c r="E66" s="11">
         <v>1012876</v>
       </c>
+      <c r="F66" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G66" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H66" s="11">
+        <v>3207999</v>
       </c>
       <c r="I66" s="11">
-        <v>3207999</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5550352</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>31</v>
       </c>
@@ -2045,44 +2045,44 @@
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="13">
+        <v>15</v>
+      </c>
+      <c r="F67" s="13">
         <v>1031614</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>13</v>
+      <c r="G67" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="13">
+        <v>209940</v>
       </c>
       <c r="I67" s="13">
-        <v>209940</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3037906</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C68" s="15"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15">
-        <v>0</v>
+        <v>1012876</v>
       </c>
       <c r="F68" s="15">
-        <v>1012876</v>
+        <v>1031614</v>
       </c>
       <c r="G68" s="15">
-        <v>1031614</v>
+        <v>0</v>
       </c>
       <c r="H68" s="15">
-        <v>0</v>
+        <v>3417939</v>
       </c>
       <c r="I68" s="15">
-        <v>3417939</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>8588258</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="16" t="s">
         <v>37</v>
       </c>
@@ -2091,22 +2091,22 @@
       </c>
       <c r="D69" s="17"/>
       <c r="E69" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="17">
+        <v>15</v>
+      </c>
+      <c r="H69" s="17">
         <v>-911972</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
         <v>39</v>
       </c>
@@ -2114,8 +2114,8 @@
         <v>44</v>
       </c>
       <c r="D70" s="15"/>
-      <c r="E70" s="15" t="s">
-        <v>13</v>
+      <c r="E70" s="15">
+        <v>0</v>
       </c>
       <c r="F70" s="15">
         <v>0</v>
@@ -2123,14 +2123,14 @@
       <c r="G70" s="15">
         <v>0</v>
       </c>
-      <c r="H70" s="15">
-        <v>0</v>
+      <c r="H70" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="16" t="s">
         <v>40</v>
       </c>
@@ -2138,8 +2138,8 @@
         <v>44</v>
       </c>
       <c r="D71" s="17"/>
-      <c r="E71" s="17" t="s">
-        <v>13</v>
+      <c r="E71" s="17">
+        <v>0</v>
       </c>
       <c r="F71" s="17">
         <v>0</v>
@@ -2147,36 +2147,36 @@
       <c r="G71" s="17">
         <v>0</v>
       </c>
-      <c r="H71" s="17">
-        <v>0</v>
-      </c>
-      <c r="I71" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="17">
+        <v>-880495</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="15"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15">
-        <v>0</v>
+        <v>4611283</v>
       </c>
       <c r="F72" s="15">
-        <v>4611283</v>
+        <v>5141567</v>
       </c>
       <c r="G72" s="15">
-        <v>5141567</v>
+        <v>9013379</v>
       </c>
       <c r="H72" s="15">
-        <v>9013379</v>
+        <v>27693494</v>
       </c>
       <c r="I72" s="15">
-        <v>27693494</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>91661180</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2186,7 +2186,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2196,7 +2196,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2206,7 +2206,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>47</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2238,7 +2238,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>48</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>11</v>
       </c>
@@ -2258,71 +2258,71 @@
         <v>49</v>
       </c>
       <c r="D79" s="11"/>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="11">
+        <v>1423376975</v>
+      </c>
+      <c r="F79" s="11">
+        <v>3284357320</v>
+      </c>
+      <c r="G79" s="11">
+        <v>4533440063</v>
+      </c>
+      <c r="H79" s="11">
+        <v>6866742797</v>
+      </c>
+      <c r="I79" s="11">
+        <v>8964712799</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B80" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="F79" s="11">
-        <v>1423376975</v>
-      </c>
-      <c r="G79" s="11">
-        <v>3284357320</v>
-      </c>
-      <c r="H79" s="11">
-        <v>4533440063</v>
-      </c>
-      <c r="I79" s="11">
-        <v>6866742797</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>49</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="13" t="s">
-        <v>13</v>
+      <c r="E80" s="13">
+        <v>1556281250</v>
       </c>
       <c r="F80" s="13">
-        <v>1556281250</v>
+        <v>3081857143</v>
       </c>
       <c r="G80" s="13">
-        <v>3081857143</v>
+        <v>4379978723</v>
       </c>
       <c r="H80" s="13">
-        <v>4379978723</v>
+        <v>4697000000</v>
       </c>
       <c r="I80" s="13">
-        <v>4697000000</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
-        <v>13</v>
+      <c r="E81" s="11">
+        <v>2820103774</v>
       </c>
       <c r="F81" s="11">
-        <v>2820103774</v>
-      </c>
-      <c r="G81" s="11">
         <v>6743969697</v>
       </c>
+      <c r="G81" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H81" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>16</v>
       </c>
@@ -2330,23 +2330,23 @@
         <v>49</v>
       </c>
       <c r="D82" s="13"/>
-      <c r="E82" s="13" t="s">
-        <v>13</v>
+      <c r="E82" s="13">
+        <v>1847500000</v>
       </c>
       <c r="F82" s="13">
-        <v>1847500000</v>
-      </c>
-      <c r="G82" s="13">
         <v>3681086705</v>
       </c>
-      <c r="H82" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="13">
+      <c r="G82" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="13">
         <v>11953194444</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I82" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>17</v>
       </c>
@@ -2354,23 +2354,23 @@
         <v>49</v>
       </c>
       <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
-        <v>13</v>
+      <c r="E83" s="11">
+        <v>1547085044</v>
       </c>
       <c r="F83" s="11">
-        <v>1547085044</v>
+        <v>3790034653</v>
       </c>
       <c r="G83" s="11">
-        <v>3790034653</v>
+        <v>5483200000</v>
       </c>
       <c r="H83" s="11">
-        <v>5483200000</v>
+        <v>7760458716</v>
       </c>
       <c r="I83" s="11">
-        <v>7760458716</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>9064795956</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>18</v>
       </c>
@@ -2378,23 +2378,23 @@
         <v>49</v>
       </c>
       <c r="D84" s="13"/>
-      <c r="E84" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="13">
+      <c r="E84" s="13">
         <v>1200300000</v>
       </c>
+      <c r="F84" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G84" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>19</v>
       </c>
@@ -2402,23 +2402,23 @@
         <v>49</v>
       </c>
       <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
-        <v>13</v>
+      <c r="E85" s="11">
+        <v>1314818182</v>
       </c>
       <c r="F85" s="11">
-        <v>1314818182</v>
-      </c>
-      <c r="G85" s="11">
         <v>2922166667</v>
       </c>
+      <c r="G85" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H85" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>20</v>
       </c>
@@ -2426,23 +2426,23 @@
         <v>49</v>
       </c>
       <c r="D86" s="13"/>
-      <c r="E86" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="13">
-        <v>0</v>
+      <c r="E86" s="13">
+        <v>0</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>21</v>
       </c>
@@ -2450,23 +2450,23 @@
         <v>49</v>
       </c>
       <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
-        <v>13</v>
+      <c r="E87" s="11">
+        <v>3405625000</v>
       </c>
       <c r="F87" s="11">
-        <v>3405625000</v>
-      </c>
-      <c r="G87" s="11">
         <v>7982772727</v>
       </c>
+      <c r="G87" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H87" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>22</v>
       </c>
@@ -2475,22 +2475,22 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G88" s="13">
+        <v>8425666667</v>
       </c>
       <c r="H88" s="13">
-        <v>8425666667</v>
+        <v>24659413793</v>
       </c>
       <c r="I88" s="13">
-        <v>24659413793</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31909986698</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>23</v>
       </c>
@@ -2498,23 +2498,23 @@
         <v>49</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
-        <v>13</v>
+      <c r="E89" s="11">
+        <v>1345978571</v>
       </c>
       <c r="F89" s="11">
-        <v>1345978571</v>
-      </c>
-      <c r="G89" s="11">
         <v>3395810573</v>
       </c>
+      <c r="G89" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H89" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>24</v>
       </c>
@@ -2523,22 +2523,22 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="13">
+        <v>15</v>
+      </c>
+      <c r="G90" s="13">
         <v>5955870307</v>
       </c>
-      <c r="I90" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H90" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="13">
+        <v>14389089820</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>25</v>
       </c>
@@ -2547,22 +2547,22 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G91" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F91" s="11">
+        <v>0</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>26</v>
       </c>
@@ -2571,22 +2571,22 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="13">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F92" s="13">
+        <v>0</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>27</v>
       </c>
@@ -2595,22 +2595,22 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G93" s="11">
+        <v>15</v>
+      </c>
+      <c r="F93" s="11">
         <v>2476267606</v>
       </c>
+      <c r="G93" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H93" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>28</v>
       </c>
@@ -2619,22 +2619,22 @@
       </c>
       <c r="D94" s="13"/>
       <c r="E94" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G94" s="13">
+        <v>2389591078</v>
       </c>
       <c r="H94" s="13">
-        <v>2389591078</v>
+        <v>6716795991</v>
       </c>
       <c r="I94" s="13">
-        <v>6716795991</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3205812114</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>50</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>31</v>
       </c>
@@ -2655,22 +2655,22 @@
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H96" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>52</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>35</v>
       </c>
@@ -2690,23 +2690,23 @@
         <v>51</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="11">
-        <v>0</v>
+      <c r="E98" s="11">
+        <v>0</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
       </c>
       <c r="I98" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>31</v>
       </c>
@@ -2715,22 +2715,22 @@
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="13">
-        <v>0</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F99" s="13">
+        <v>0</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="13">
+        <v>0</v>
       </c>
       <c r="I99" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -2740,7 +2740,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2750,7 +2750,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2760,7 +2760,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B103" s="7" t="s">
         <v>53</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -2792,7 +2792,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>54</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>11</v>
       </c>
@@ -2812,71 +2812,71 @@
         <v>44</v>
       </c>
       <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
+      <c r="E106" s="11">
+        <v>-842071</v>
+      </c>
+      <c r="F106" s="11">
+        <v>-395726</v>
+      </c>
+      <c r="G106" s="11">
+        <v>-1213681</v>
+      </c>
+      <c r="H106" s="11">
+        <v>-7864223</v>
+      </c>
+      <c r="I106" s="11">
+        <v>-16622534</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B107" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F106" s="11">
-        <v>-842071</v>
-      </c>
-      <c r="G106" s="11">
-        <v>-395726</v>
-      </c>
-      <c r="H106" s="11">
-        <v>-1213681</v>
-      </c>
-      <c r="I106" s="11">
-        <v>-7864223</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B107" s="12" t="s">
+      <c r="C107" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13">
+        <v>-164284</v>
+      </c>
+      <c r="F107" s="13">
+        <v>-6032</v>
+      </c>
+      <c r="G107" s="13">
+        <v>-51333</v>
+      </c>
+      <c r="H107" s="13">
+        <v>-16182</v>
+      </c>
+      <c r="I107" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C107" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="13">
-        <v>-164284</v>
-      </c>
-      <c r="G107" s="13">
-        <v>-6032</v>
-      </c>
-      <c r="H107" s="13">
-        <v>-51333</v>
-      </c>
-      <c r="I107" s="13">
-        <v>-16182</v>
-      </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B108" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="C108" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D108" s="11"/>
-      <c r="E108" s="11" t="s">
-        <v>13</v>
+      <c r="E108" s="11">
+        <v>-201444</v>
       </c>
       <c r="F108" s="11">
-        <v>-201444</v>
-      </c>
-      <c r="G108" s="11">
         <v>-67651</v>
       </c>
+      <c r="G108" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H108" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>16</v>
       </c>
@@ -2884,23 +2884,23 @@
         <v>44</v>
       </c>
       <c r="D109" s="13"/>
-      <c r="E109" s="13" t="s">
-        <v>13</v>
+      <c r="E109" s="13">
+        <v>-619278</v>
       </c>
       <c r="F109" s="13">
-        <v>-619278</v>
-      </c>
-      <c r="G109" s="13">
         <v>-452848</v>
       </c>
-      <c r="H109" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I109" s="13">
+      <c r="G109" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="13">
         <v>-2117596</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I109" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>17</v>
       </c>
@@ -2908,23 +2908,23 @@
         <v>44</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>13</v>
+      <c r="E110" s="11">
+        <v>-351817</v>
       </c>
       <c r="F110" s="11">
-        <v>-351817</v>
+        <v>-208680</v>
       </c>
       <c r="G110" s="11">
-        <v>-208680</v>
+        <v>-127070</v>
       </c>
       <c r="H110" s="11">
-        <v>-127070</v>
+        <v>-898742</v>
       </c>
       <c r="I110" s="11">
-        <v>-898742</v>
-      </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2840606</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>18</v>
       </c>
@@ -2932,23 +2932,23 @@
         <v>44</v>
       </c>
       <c r="D111" s="13"/>
-      <c r="E111" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" s="13">
+      <c r="E111" s="13">
         <v>-8217</v>
       </c>
+      <c r="F111" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G111" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H111" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I111" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>19</v>
       </c>
@@ -2956,23 +2956,23 @@
         <v>44</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>13</v>
+      <c r="E112" s="11">
+        <v>-39692</v>
       </c>
       <c r="F112" s="11">
-        <v>-39692</v>
-      </c>
-      <c r="G112" s="11">
         <v>-5412</v>
       </c>
+      <c r="G112" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H112" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>20</v>
       </c>
@@ -2980,23 +2980,23 @@
         <v>44</v>
       </c>
       <c r="D113" s="13"/>
-      <c r="E113" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" s="13">
-        <v>0</v>
+      <c r="E113" s="13">
+        <v>0</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H113" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>21</v>
       </c>
@@ -3004,23 +3004,23 @@
         <v>44</v>
       </c>
       <c r="D114" s="11"/>
-      <c r="E114" s="11" t="s">
-        <v>13</v>
+      <c r="E114" s="11">
+        <v>-218093</v>
       </c>
       <c r="F114" s="11">
-        <v>-218093</v>
-      </c>
-      <c r="G114" s="11">
         <v>-58728</v>
       </c>
+      <c r="G114" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H114" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>22</v>
       </c>
@@ -3029,22 +3029,22 @@
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G115" s="13">
+        <v>-20618</v>
       </c>
       <c r="H115" s="13">
-        <v>-20618</v>
+        <v>-445232</v>
       </c>
       <c r="I115" s="13">
-        <v>-445232</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-25464887</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>23</v>
       </c>
@@ -3052,23 +3052,23 @@
         <v>44</v>
       </c>
       <c r="D116" s="11"/>
-      <c r="E116" s="11" t="s">
-        <v>13</v>
+      <c r="E116" s="11">
+        <v>-123849</v>
       </c>
       <c r="F116" s="11">
-        <v>-123849</v>
-      </c>
-      <c r="G116" s="11">
         <v>-202848</v>
       </c>
+      <c r="G116" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H116" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>24</v>
       </c>
@@ -3077,22 +3077,22 @@
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="13">
+        <v>15</v>
+      </c>
+      <c r="G117" s="13">
         <v>-1218779</v>
       </c>
-      <c r="I117" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H117" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="13">
+        <v>-5149036</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>25</v>
       </c>
@@ -3101,22 +3101,22 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F118" s="11">
+        <v>0</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H118" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>26</v>
       </c>
@@ -3125,22 +3125,22 @@
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" s="13">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F119" s="13">
+        <v>0</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="H119" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I119" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>27</v>
       </c>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" s="11">
+        <v>15</v>
+      </c>
+      <c r="F120" s="11">
         <v>-84307</v>
       </c>
+      <c r="G120" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H120" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>28</v>
       </c>
@@ -3173,44 +3173,44 @@
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F121" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G121" s="13">
+        <v>-429255</v>
       </c>
       <c r="H121" s="13">
-        <v>-429255</v>
+        <v>-1067071</v>
       </c>
       <c r="I121" s="13">
-        <v>-1067071</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-2143686</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15">
-        <v>0</v>
+        <v>-2568745</v>
       </c>
       <c r="F122" s="15">
-        <v>-2568745</v>
+        <v>-1482232</v>
       </c>
       <c r="G122" s="15">
-        <v>-1482232</v>
+        <v>-3060736</v>
       </c>
       <c r="H122" s="15">
-        <v>-3060736</v>
+        <v>-12409046</v>
       </c>
       <c r="I122" s="15">
-        <v>-12409046</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-52220749</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>56</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="H123" s="9"/>
       <c r="I123" s="9"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>31</v>
       </c>
@@ -3231,22 +3231,22 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H124" s="11">
+        <v>15</v>
+      </c>
+      <c r="G124" s="11">
         <v>-293481</v>
       </c>
+      <c r="H124" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="I124" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="16" t="s">
         <v>57</v>
       </c>
@@ -3259,16 +3259,16 @@
         <v>0</v>
       </c>
       <c r="G125" s="17">
-        <v>0</v>
+        <v>-293481</v>
       </c>
       <c r="H125" s="17">
-        <v>-293481</v>
+        <v>0</v>
       </c>
       <c r="I125" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="8" t="s">
         <v>58</v>
       </c>
@@ -3280,7 +3280,7 @@
       <c r="H126" s="9"/>
       <c r="I126" s="9"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
         <v>35</v>
       </c>
@@ -3288,23 +3288,23 @@
         <v>44</v>
       </c>
       <c r="D127" s="11"/>
-      <c r="E127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" s="11">
+      <c r="E127" s="11">
         <v>-468498</v>
       </c>
+      <c r="F127" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G127" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H127" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H127" s="11">
+        <v>-521635</v>
       </c>
       <c r="I127" s="11">
-        <v>-521635</v>
-      </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1220431</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
         <v>31</v>
       </c>
@@ -3313,44 +3313,44 @@
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" s="13">
+        <v>15</v>
+      </c>
+      <c r="F128" s="13">
         <v>-400010</v>
       </c>
-      <c r="H128" s="13" t="s">
-        <v>13</v>
+      <c r="G128" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="13">
+        <v>-104154</v>
       </c>
       <c r="I128" s="13">
-        <v>-104154</v>
-      </c>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-1855822</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
-        <v>0</v>
+        <v>-468498</v>
       </c>
       <c r="F129" s="15">
-        <v>-468498</v>
+        <v>-400010</v>
       </c>
       <c r="G129" s="15">
-        <v>-400010</v>
+        <v>0</v>
       </c>
       <c r="H129" s="15">
-        <v>0</v>
+        <v>-625789</v>
       </c>
       <c r="I129" s="15">
-        <v>-625789</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3076253</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="16" t="s">
         <v>37</v>
       </c>
@@ -3359,22 +3359,22 @@
       </c>
       <c r="D130" s="17"/>
       <c r="E130" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F130" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G130" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H130" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I130" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="H130" s="17">
+        <v>0</v>
+      </c>
+      <c r="I130" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>39</v>
       </c>
@@ -3382,8 +3382,8 @@
         <v>44</v>
       </c>
       <c r="D131" s="15"/>
-      <c r="E131" s="15" t="s">
-        <v>13</v>
+      <c r="E131" s="15">
+        <v>0</v>
       </c>
       <c r="F131" s="15">
         <v>0</v>
@@ -3391,14 +3391,14 @@
       <c r="G131" s="15">
         <v>0</v>
       </c>
-      <c r="H131" s="15">
-        <v>0</v>
+      <c r="H131" s="15" t="s">
+        <v>15</v>
       </c>
       <c r="I131" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="16" t="s">
         <v>40</v>
       </c>
@@ -3406,8 +3406,8 @@
         <v>44</v>
       </c>
       <c r="D132" s="17"/>
-      <c r="E132" s="17" t="s">
-        <v>13</v>
+      <c r="E132" s="17">
+        <v>0</v>
       </c>
       <c r="F132" s="17">
         <v>0</v>
@@ -3415,36 +3415,36 @@
       <c r="G132" s="17">
         <v>0</v>
       </c>
-      <c r="H132" s="17">
-        <v>0</v>
-      </c>
-      <c r="I132" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H132" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15">
-        <v>0</v>
+        <v>-3037243</v>
       </c>
       <c r="F133" s="15">
-        <v>-3037243</v>
+        <v>-1882242</v>
       </c>
       <c r="G133" s="15">
-        <v>-1882242</v>
+        <v>-3354217</v>
       </c>
       <c r="H133" s="15">
-        <v>-3354217</v>
+        <v>-13034835</v>
       </c>
       <c r="I133" s="15">
-        <v>-13034835</v>
-      </c>
-    </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-55297002</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3454,7 +3454,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -3464,7 +3464,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3474,7 +3474,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B137" s="7" t="s">
         <v>60</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3506,7 +3506,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>61</v>
       </c>
@@ -3518,7 +3518,7 @@
       <c r="H139" s="9"/>
       <c r="I139" s="9"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>11</v>
       </c>
@@ -3526,71 +3526,71 @@
         <v>44</v>
       </c>
       <c r="D140" s="11"/>
-      <c r="E140" s="11" t="s">
+      <c r="E140" s="11">
+        <v>419041</v>
+      </c>
+      <c r="F140" s="11">
+        <v>927870</v>
+      </c>
+      <c r="G140" s="11">
+        <v>1660520</v>
+      </c>
+      <c r="H140" s="11">
+        <v>5244389</v>
+      </c>
+      <c r="I140" s="11">
+        <v>9222733</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B141" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F140" s="11">
-        <v>419041</v>
-      </c>
-      <c r="G140" s="11">
-        <v>927870</v>
-      </c>
-      <c r="H140" s="11">
-        <v>1660520</v>
-      </c>
-      <c r="I140" s="11">
-        <v>5244389</v>
-      </c>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B141" s="12" t="s">
+      <c r="C141" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13">
+        <v>134522</v>
+      </c>
+      <c r="F141" s="13">
+        <v>15541</v>
+      </c>
+      <c r="G141" s="13">
+        <v>154526</v>
+      </c>
+      <c r="H141" s="13">
+        <v>87152</v>
+      </c>
+      <c r="I141" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B142" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C141" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D141" s="13"/>
-      <c r="E141" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" s="13">
-        <v>134522</v>
-      </c>
-      <c r="G141" s="13">
-        <v>15541</v>
-      </c>
-      <c r="H141" s="13">
-        <v>154526</v>
-      </c>
-      <c r="I141" s="13">
-        <v>87152</v>
-      </c>
-    </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B142" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="C142" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>13</v>
+      <c r="E142" s="11">
+        <v>97487</v>
       </c>
       <c r="F142" s="11">
-        <v>97487</v>
-      </c>
-      <c r="G142" s="11">
         <v>154900</v>
       </c>
+      <c r="G142" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H142" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="12" t="s">
         <v>16</v>
       </c>
@@ -3598,23 +3598,23 @@
         <v>44</v>
       </c>
       <c r="D143" s="13"/>
-      <c r="E143" s="13" t="s">
-        <v>13</v>
+      <c r="E143" s="13">
+        <v>34737</v>
       </c>
       <c r="F143" s="13">
-        <v>34737</v>
-      </c>
-      <c r="G143" s="13">
         <v>183980</v>
       </c>
-      <c r="H143" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I143" s="13">
+      <c r="G143" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="13">
         <v>1755239</v>
       </c>
-    </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I143" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>17</v>
       </c>
@@ -3622,23 +3622,23 @@
         <v>44</v>
       </c>
       <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>13</v>
+      <c r="E144" s="11">
+        <v>175739</v>
       </c>
       <c r="F144" s="11">
-        <v>175739</v>
+        <v>556907</v>
       </c>
       <c r="G144" s="11">
-        <v>556907</v>
+        <v>393834</v>
       </c>
       <c r="H144" s="11">
-        <v>393834</v>
+        <v>793038</v>
       </c>
       <c r="I144" s="11">
-        <v>793038</v>
-      </c>
-    </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2090643</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="12" t="s">
         <v>18</v>
       </c>
@@ -3646,23 +3646,23 @@
         <v>44</v>
       </c>
       <c r="D145" s="13"/>
-      <c r="E145" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" s="13">
+      <c r="E145" s="13">
         <v>3786</v>
       </c>
+      <c r="F145" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="G145" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H145" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I145" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>19</v>
       </c>
@@ -3670,23 +3670,23 @@
         <v>44</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>13</v>
+      <c r="E146" s="11">
+        <v>18160</v>
       </c>
       <c r="F146" s="11">
-        <v>18160</v>
-      </c>
-      <c r="G146" s="11">
         <v>12121</v>
       </c>
+      <c r="G146" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H146" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="12" t="s">
         <v>20</v>
       </c>
@@ -3694,23 +3694,23 @@
         <v>44</v>
       </c>
       <c r="D147" s="13"/>
-      <c r="E147" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" s="13">
-        <v>0</v>
+      <c r="E147" s="13">
+        <v>0</v>
+      </c>
+      <c r="F147" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H147" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I147" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>21</v>
       </c>
@@ -3718,23 +3718,23 @@
         <v>44</v>
       </c>
       <c r="D148" s="11"/>
-      <c r="E148" s="11" t="s">
-        <v>13</v>
+      <c r="E148" s="11">
+        <v>81602</v>
       </c>
       <c r="F148" s="11">
-        <v>81602</v>
-      </c>
-      <c r="G148" s="11">
         <v>116893</v>
       </c>
+      <c r="G148" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H148" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="12" t="s">
         <v>22</v>
       </c>
@@ -3743,22 +3743,22 @@
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G149" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G149" s="13">
+        <v>55213</v>
       </c>
       <c r="H149" s="13">
-        <v>55213</v>
+        <v>269891</v>
       </c>
       <c r="I149" s="13">
-        <v>269891</v>
-      </c>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15316076</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>23</v>
       </c>
@@ -3766,23 +3766,23 @@
         <v>44</v>
       </c>
       <c r="D150" s="11"/>
-      <c r="E150" s="11" t="s">
-        <v>13</v>
+      <c r="E150" s="11">
+        <v>64588</v>
       </c>
       <c r="F150" s="11">
-        <v>64588</v>
-      </c>
-      <c r="G150" s="11">
         <v>568001</v>
       </c>
+      <c r="G150" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H150" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="12" t="s">
         <v>24</v>
       </c>
@@ -3791,22 +3791,22 @@
       </c>
       <c r="D151" s="13"/>
       <c r="E151" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G151" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H151" s="13">
+        <v>15</v>
+      </c>
+      <c r="G151" s="13">
         <v>526291</v>
       </c>
-      <c r="I151" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H151" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="13">
+        <v>2059898</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="10" t="s">
         <v>25</v>
       </c>
@@ -3815,22 +3815,22 @@
       </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" s="11">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F152" s="11">
+        <v>0</v>
+      </c>
+      <c r="G152" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="H152" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="12" t="s">
         <v>26</v>
       </c>
@@ -3839,22 +3839,22 @@
       </c>
       <c r="D153" s="13"/>
       <c r="E153" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G153" s="13">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F153" s="13">
+        <v>0</v>
+      </c>
+      <c r="G153" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="H153" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I153" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>27</v>
       </c>
@@ -3863,22 +3863,22 @@
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" s="11">
+        <v>15</v>
+      </c>
+      <c r="F154" s="11">
         <v>91508</v>
       </c>
+      <c r="G154" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H154" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="12" t="s">
         <v>28</v>
       </c>
@@ -3887,44 +3887,44 @@
       </c>
       <c r="D155" s="13"/>
       <c r="E155" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="G155" s="13">
+        <v>856345</v>
       </c>
       <c r="H155" s="13">
-        <v>856345</v>
+        <v>4628772</v>
       </c>
       <c r="I155" s="13">
-        <v>4628772</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3043318</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15">
-        <v>0</v>
+        <v>1029662</v>
       </c>
       <c r="F156" s="15">
-        <v>1029662</v>
+        <v>2627721</v>
       </c>
       <c r="G156" s="15">
-        <v>2627721</v>
+        <v>3646729</v>
       </c>
       <c r="H156" s="15">
-        <v>3646729</v>
+        <v>12778481</v>
       </c>
       <c r="I156" s="15">
-        <v>12778481</v>
-      </c>
-    </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+        <v>31732668</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>63</v>
       </c>
@@ -3936,7 +3936,7 @@
       <c r="H157" s="9"/>
       <c r="I157" s="9"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>31</v>
       </c>
@@ -3945,22 +3945,22 @@
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H158" s="11">
+        <v>15</v>
+      </c>
+      <c r="G158" s="11">
         <v>2012433</v>
       </c>
+      <c r="H158" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="I158" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="16" t="s">
         <v>64</v>
       </c>
@@ -3973,16 +3973,16 @@
         <v>0</v>
       </c>
       <c r="G159" s="17">
-        <v>0</v>
+        <v>2012433</v>
       </c>
       <c r="H159" s="17">
-        <v>2012433</v>
+        <v>0</v>
       </c>
       <c r="I159" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="8" t="s">
         <v>65</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="H160" s="9"/>
       <c r="I160" s="9"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="10" t="s">
         <v>35</v>
       </c>
@@ -4002,23 +4002,23 @@
         <v>44</v>
       </c>
       <c r="D161" s="11"/>
-      <c r="E161" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" s="11">
+      <c r="E161" s="11">
         <v>544378</v>
       </c>
+      <c r="F161" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="G161" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H161" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="H161" s="11">
+        <v>2686364</v>
       </c>
       <c r="I161" s="11">
-        <v>2686364</v>
-      </c>
-    </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4329921</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="12" t="s">
         <v>31</v>
       </c>
@@ -4027,63 +4027,63 @@
       </c>
       <c r="D162" s="13"/>
       <c r="E162" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G162" s="13">
+        <v>15</v>
+      </c>
+      <c r="F162" s="13">
         <v>631604</v>
       </c>
-      <c r="H162" s="13" t="s">
-        <v>13</v>
+      <c r="G162" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" s="13">
+        <v>105786</v>
       </c>
       <c r="I162" s="13">
-        <v>105786</v>
-      </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1182084</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15">
-        <v>0</v>
+        <v>544378</v>
       </c>
       <c r="F163" s="15">
-        <v>544378</v>
+        <v>631604</v>
       </c>
       <c r="G163" s="15">
-        <v>631604</v>
+        <v>0</v>
       </c>
       <c r="H163" s="15">
-        <v>0</v>
+        <v>2792150</v>
       </c>
       <c r="I163" s="15">
-        <v>2792150</v>
-      </c>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5512005</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="17"/>
       <c r="E164" s="17">
-        <v>0</v>
+        <v>1574040</v>
       </c>
       <c r="F164" s="17">
-        <v>1574040</v>
+        <v>3259325</v>
       </c>
       <c r="G164" s="17">
-        <v>3259325</v>
+        <v>5659162</v>
       </c>
       <c r="H164" s="17">
-        <v>5659162</v>
+        <v>15570631</v>
       </c>
       <c r="I164" s="17">
-        <v>15570631</v>
+        <v>37244673</v>
       </c>
     </row>
   </sheetData>
